--- a/Datacamp Joining Data with Pandas/ur_wide.xlsx
+++ b/Datacamp Joining Data with Pandas/ur_wide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanstevens/Documents/Python/Pandas/Joining Data with Pandas - Datacamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanstevens/Documents/Python/Datacamp-Files-Git/Datacamp Joining Data with Pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33580A63-5045-1A4B-81BF-D13B2FA111A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0918053C-CBF7-114B-9BFB-7F467884C773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1700" windowWidth="25940" windowHeight="15260" xr2:uid="{3C5C1819-4146-AC4C-84AA-54B53AFB7B81}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{3C5C1819-4146-AC4C-84AA-54B53AFB7B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -121,10 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,120 +435,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA625C7-33C5-6945-8A5E-0F15D9BBD008}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="13" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2010</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="1">
         <v>9.9</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="1">
         <v>9.9</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" s="1">
         <v>9.5</v>
       </c>
+      <c r="G2" s="1">
+        <v>9</v>
+      </c>
       <c r="H2" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="C3" s="1">
         <v>9</v>
       </c>
-      <c r="I2" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J2">
-        <v>9.5</v>
-      </c>
-      <c r="K2">
-        <v>9.5</v>
-      </c>
-      <c r="L2">
-        <v>9.4</v>
-      </c>
-      <c r="M2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="N2">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2011</v>
-      </c>
-      <c r="C3">
+      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
         <v>9.1</v>
       </c>
-      <c r="D3">
+      <c r="F3" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="G3" s="1">
         <v>9</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>9.1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8.4</v>
       </c>
       <c r="H3" s="1">
         <v>9</v>
@@ -560,415 +556,385 @@
       <c r="I3" s="1">
         <v>9</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="1">
         <v>8.6</v>
       </c>
-      <c r="N3">
+      <c r="M3" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2012</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F4" s="1">
         <v>8.1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
       </c>
       <c r="H4" s="1">
         <v>8</v>
       </c>
       <c r="I4" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="J4">
-        <v>8.1</v>
-      </c>
-      <c r="K4">
-        <v>7.8</v>
-      </c>
-      <c r="L4">
-        <v>7.8</v>
-      </c>
-      <c r="M4">
+      <c r="C5" s="1">
         <v>7.7</v>
       </c>
-      <c r="N4">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2013</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
         <v>7.7</v>
       </c>
-      <c r="E5">
+      <c r="H5" s="1">
         <v>7.5</v>
       </c>
-      <c r="F5">
-        <v>7.6</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="I5" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="1">
         <v>7.2</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="1">
         <v>7.2</v>
       </c>
-      <c r="L5">
+      <c r="K5" s="1">
         <v>7.2</v>
       </c>
-      <c r="M5">
+      <c r="L5" s="1">
         <v>6.9</v>
       </c>
-      <c r="N5">
+      <c r="M5" s="1">
         <v>6.7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>2014</v>
-      </c>
-      <c r="C6">
-        <v>6.6</v>
-      </c>
-      <c r="D6">
-        <v>6.7</v>
-      </c>
-      <c r="E6">
-        <v>6.7</v>
-      </c>
-      <c r="F6">
-        <v>6.2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="J6">
-        <v>6.1</v>
-      </c>
-      <c r="K6">
-        <v>5.9</v>
-      </c>
-      <c r="L6">
-        <v>5.7</v>
-      </c>
-      <c r="M6">
-        <v>5.8</v>
-      </c>
-      <c r="N6">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2015</v>
-      </c>
-      <c r="C7">
-        <v>5.7</v>
-      </c>
-      <c r="D7">
-        <v>5.5</v>
-      </c>
-      <c r="E7">
-        <v>5.4</v>
-      </c>
-      <c r="F7">
-        <v>5.4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="J7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2016</v>
-      </c>
-      <c r="C8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="J8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M8">
-        <v>4.7</v>
-      </c>
-      <c r="N8">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2017</v>
-      </c>
-      <c r="C9">
-        <v>4.7</v>
-      </c>
-      <c r="D9">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E9">
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D12" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="J9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K9">
-        <v>4.2</v>
-      </c>
-      <c r="L9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M9">
-        <v>4.2</v>
-      </c>
-      <c r="N9">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2018</v>
-      </c>
-      <c r="C10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="J10">
-        <v>3.8</v>
-      </c>
-      <c r="K10">
-        <v>3.7</v>
-      </c>
-      <c r="L10">
-        <v>3.8</v>
-      </c>
-      <c r="M10">
-        <v>3.7</v>
-      </c>
-      <c r="N10">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2019</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>3.8</v>
-      </c>
-      <c r="E11">
-        <v>3.8</v>
-      </c>
-      <c r="F11">
-        <v>3.6</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="J11">
-        <v>3.7</v>
-      </c>
-      <c r="K11">
-        <v>3.5</v>
-      </c>
-      <c r="L11">
-        <v>3.6</v>
-      </c>
-      <c r="M11">
-        <v>3.5</v>
-      </c>
-      <c r="N11">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2020</v>
-      </c>
-      <c r="C12">
-        <v>3.6</v>
-      </c>
-      <c r="D12">
-        <v>3.5</v>
-      </c>
-      <c r="E12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
